--- a/InputFiles/ICDC/TC01_Canine_StudyDetailPage_ArmsCohortsTab_COTC007B.xlsx
+++ b/InputFiles/ICDC/TC01_Canine_StudyDetailPage_ArmsCohortsTab_COTC007B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C39E18E-F009-40E4-B5AC-AF2387FC226D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30B35B4-D670-4348-924D-CC39B52B364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>WebExcel</t>
   </si>
@@ -44,26 +44,6 @@
   </si>
   <si>
     <t>TabName</t>
-  </si>
-  <si>
-    <t>StatQuery</t>
-  </si>
-  <si>
-    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-OPTIONAL MATCH (sf:file)--&gt;(s)
-MATCH (s:study)&lt;-[:member_of]-(sa:study_arm)
-WHERE s.clinical_study_designation in ['COTC007B']
-OPTIONAL MATCH (sa)&lt;-[:member_of]-(c:cohort)
-RETURN  
-    count(distinct p) AS Programs,
-    count(distinct s) AS Studies,
-    count(distinct c) AS Cases,
-    count(distinct samp) AS Samples,
-    count(distinct f) AS `Case Files`,
-    count(distinct sf) AS `Study Files`</t>
   </si>
   <si>
     <t>TC01_Canine_StudyDetailPage_ArmsCohortsTab_COTC007B_Neo4jData.xlsx</t>
@@ -83,10 +63,11 @@
 WITH
     sa,
     coalesce(sa.arm) as `Arms`,
+   coalesce(sa.arm_descriptions,"") as `Description`,
     COLLECT(DISTINCT c.cohort_dose) as cohortDoses
 RETURN
 `Arms`,
-sa.arm_descriptions as `Description`,
+`Description`,
 REDUCE(s = "", dose IN cohortDoses | s + dose ) as Cohorts
 order by `Arms`  asc</t>
   </si>
@@ -95,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +104,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,13 +126,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,56 +447,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="3" width="92.453125" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" customWidth="1"/>
-    <col min="5" max="5" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.453125" customWidth="1"/>
+    <col min="3" max="3" width="70.26953125" customWidth="1"/>
+    <col min="4" max="4" width="40.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="330" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="330" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
